--- a/project/document/需求.xlsx
+++ b/project/document/需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>版本</t>
   </si>
@@ -50,6 +50,15 @@
   <si>
     <t>5、输出测试报告</t>
   </si>
+  <si>
+    <t>html形式的报告</t>
+  </si>
+  <si>
+    <t>6、执行过程打印清晰明了的日志</t>
+  </si>
+  <si>
+    <t>以newman日志作为参考</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +70,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,25 +87,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,49 +134,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,10 +154,49 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,53 +208,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +252,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +348,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,43 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,43 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,55 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +517,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -531,35 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +565,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,148 +594,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,14 +1104,14 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1174,13 +1176,21 @@
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>

--- a/project/document/需求.xlsx
+++ b/project/document/需求.xlsx
@@ -79,67 +79,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,56 +200,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,22 +214,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,7 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +250,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,67 +370,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,91 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,11 +484,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,32 +538,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,35 +581,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,10 +601,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,141 +613,144 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1099,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1114,7 +1109,7 @@
     <col min="4" max="4" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="17.25" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1138,50 +1133,52 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:4">
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:4">
+      <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:4">
+      <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+    <row r="7" ht="17.25" spans="1:4">
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1192,125 +1189,125 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+    <row r="8" ht="17.25" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" ht="17.25" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" ht="17.25" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" ht="17.25" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
